--- a/data/pca/factorExposure/factorExposure_2018-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.005721523086089158</v>
+        <v>0.01113775042699139</v>
       </c>
       <c r="C2">
-        <v>0.02482327868798942</v>
+        <v>-0.0259190979273077</v>
       </c>
       <c r="D2">
-        <v>-0.01856518329564781</v>
+        <v>0.0243630985254166</v>
       </c>
       <c r="E2">
-        <v>-0.008698996807412504</v>
+        <v>0.02259445338805189</v>
       </c>
       <c r="F2">
-        <v>-0.08182048044250136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.004366380478304255</v>
+      </c>
+      <c r="G2">
+        <v>0.01599216383935451</v>
+      </c>
+      <c r="H2">
+        <v>-0.04662891301434018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0867363635770973</v>
+        <v>0.05470417886319166</v>
       </c>
       <c r="C3">
-        <v>0.05047544456039971</v>
+        <v>-0.07766226469271252</v>
       </c>
       <c r="D3">
-        <v>0.008119471057449423</v>
+        <v>0.005964459262393267</v>
       </c>
       <c r="E3">
-        <v>-0.03433736569327456</v>
+        <v>0.03278764699220386</v>
       </c>
       <c r="F3">
-        <v>-0.3048936694481909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08954290406651459</v>
+      </c>
+      <c r="G3">
+        <v>0.08497622164732288</v>
+      </c>
+      <c r="H3">
+        <v>-0.1104851557883399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04445573721631643</v>
+        <v>0.03539140794713798</v>
       </c>
       <c r="C4">
-        <v>0.01281358036208299</v>
+        <v>-0.0631310476471653</v>
       </c>
       <c r="D4">
-        <v>-0.02895195430370233</v>
+        <v>0.01750273114588945</v>
       </c>
       <c r="E4">
-        <v>0.03789807831991023</v>
+        <v>-0.02402619688694248</v>
       </c>
       <c r="F4">
-        <v>-0.05743414240358474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.006833157492278098</v>
+      </c>
+      <c r="G4">
+        <v>0.04691670032495764</v>
+      </c>
+      <c r="H4">
+        <v>-0.05341893587596976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0333636985197384</v>
+        <v>0.0211909863116398</v>
       </c>
       <c r="C6">
-        <v>0.01647160350925094</v>
+        <v>-0.06343018424883361</v>
       </c>
       <c r="D6">
-        <v>-0.03865869479531261</v>
+        <v>0.01255672722406155</v>
       </c>
       <c r="E6">
-        <v>0.02758982717215139</v>
+        <v>-0.009336743723878188</v>
       </c>
       <c r="F6">
-        <v>-0.02064149157748772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0182539486000205</v>
+      </c>
+      <c r="G6">
+        <v>0.02688223977790053</v>
+      </c>
+      <c r="H6">
+        <v>-0.05375052907018065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04106347951964111</v>
+        <v>0.008338260528355472</v>
       </c>
       <c r="C7">
-        <v>-0.03217156454055568</v>
+        <v>-0.03416664803323353</v>
       </c>
       <c r="D7">
-        <v>-0.02131556683343649</v>
+        <v>0.01056543836662498</v>
       </c>
       <c r="E7">
-        <v>0.008303290861067921</v>
+        <v>-0.0413028621456529</v>
       </c>
       <c r="F7">
-        <v>-0.02727815350026022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02384073626999045</v>
+      </c>
+      <c r="G7">
+        <v>0.007732839621966443</v>
+      </c>
+      <c r="H7">
+        <v>-0.03599018230260527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01421980443084944</v>
+        <v>-0.003671637704132005</v>
       </c>
       <c r="C8">
-        <v>-0.003457600988991155</v>
+        <v>-0.009984406404108807</v>
       </c>
       <c r="D8">
-        <v>-0.03570624078599075</v>
+        <v>0.00185116509713679</v>
       </c>
       <c r="E8">
-        <v>0.02692442871433343</v>
+        <v>-0.008829917316854379</v>
       </c>
       <c r="F8">
-        <v>-0.05200478753182106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.017189748058562</v>
+      </c>
+      <c r="G8">
+        <v>0.0301754760986224</v>
+      </c>
+      <c r="H8">
+        <v>-0.02528663992213376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03104283842801823</v>
+        <v>0.02019949440258504</v>
       </c>
       <c r="C9">
-        <v>0.005904111153163694</v>
+        <v>-0.04789715631709818</v>
       </c>
       <c r="D9">
-        <v>-0.02964158258593159</v>
+        <v>0.01209294458945986</v>
       </c>
       <c r="E9">
-        <v>0.01122700433176491</v>
+        <v>-0.005569167769212735</v>
       </c>
       <c r="F9">
-        <v>-0.07256334788659215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01404524920870388</v>
+      </c>
+      <c r="G9">
+        <v>0.0329555158612358</v>
+      </c>
+      <c r="H9">
+        <v>-0.05234601923027846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03825292559379943</v>
+        <v>0.1366699646331511</v>
       </c>
       <c r="C10">
-        <v>0.006931049469813174</v>
+        <v>0.1387856425130767</v>
       </c>
       <c r="D10">
-        <v>0.1442280532854604</v>
+        <v>-0.02723620262823876</v>
       </c>
       <c r="E10">
-        <v>-0.05317563866313284</v>
+        <v>0.01629505937171264</v>
       </c>
       <c r="F10">
-        <v>-0.04835055584834603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04991361250721549</v>
+      </c>
+      <c r="G10">
+        <v>0.002137283440547172</v>
+      </c>
+      <c r="H10">
+        <v>0.009074630839601179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02755265747798427</v>
+        <v>0.0142045838294218</v>
       </c>
       <c r="C11">
-        <v>0.02303397676718043</v>
+        <v>-0.05003167384894699</v>
       </c>
       <c r="D11">
-        <v>-0.03377778812312419</v>
+        <v>-0.0006996909648824629</v>
       </c>
       <c r="E11">
-        <v>0.0243090676450962</v>
+        <v>-0.0002417889222738016</v>
       </c>
       <c r="F11">
-        <v>-0.02215581829696681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006039289070133579</v>
+      </c>
+      <c r="G11">
+        <v>0.0153777345465725</v>
+      </c>
+      <c r="H11">
+        <v>-0.04831003017931257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04005311792791848</v>
+        <v>0.01767635673800194</v>
       </c>
       <c r="C12">
-        <v>0.0248257099911255</v>
+        <v>-0.04800019789642401</v>
       </c>
       <c r="D12">
-        <v>-0.02761323883506565</v>
+        <v>0.003055928444203917</v>
       </c>
       <c r="E12">
-        <v>0.03272870065671449</v>
+        <v>-0.01378530202905919</v>
       </c>
       <c r="F12">
-        <v>0.00268365330474373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006746865540626708</v>
+      </c>
+      <c r="G12">
+        <v>0.008319621542632218</v>
+      </c>
+      <c r="H12">
+        <v>-0.01845440588808392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.004459661332951465</v>
+        <v>0.01497459421312908</v>
       </c>
       <c r="C13">
-        <v>0.01690441359110886</v>
+        <v>-0.02469280204094396</v>
       </c>
       <c r="D13">
-        <v>-0.007127376135135302</v>
+        <v>0.02021621579550164</v>
       </c>
       <c r="E13">
-        <v>0.01000508097286405</v>
+        <v>0.01565731582621615</v>
       </c>
       <c r="F13">
-        <v>-0.0679540286211287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005238973321808203</v>
+      </c>
+      <c r="G13">
+        <v>0.04288803677111574</v>
+      </c>
+      <c r="H13">
+        <v>-0.06826009652274077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02384258575963577</v>
+        <v>0.007722603671178886</v>
       </c>
       <c r="C14">
-        <v>-0.003093592350900407</v>
+        <v>-0.02069353018969057</v>
       </c>
       <c r="D14">
-        <v>-0.01403277436215142</v>
+        <v>0.006013414278290384</v>
       </c>
       <c r="E14">
-        <v>0.01469424874428161</v>
+        <v>-0.01374558880989521</v>
       </c>
       <c r="F14">
-        <v>-0.04138198035271735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01542361552761326</v>
+      </c>
+      <c r="G14">
+        <v>0.02397018487966993</v>
+      </c>
+      <c r="H14">
+        <v>-0.01719529259262411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02872363350774917</v>
+        <v>0.01615282438395275</v>
       </c>
       <c r="C16">
-        <v>0.02212888108151369</v>
+        <v>-0.04362545822906654</v>
       </c>
       <c r="D16">
-        <v>-0.03634949460155613</v>
+        <v>-0.001324683268813131</v>
       </c>
       <c r="E16">
-        <v>0.02499988663723952</v>
+        <v>-0.00460331584245095</v>
       </c>
       <c r="F16">
-        <v>-0.02767698787045664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.004007136642401891</v>
+      </c>
+      <c r="G16">
+        <v>0.0169043331913351</v>
+      </c>
+      <c r="H16">
+        <v>-0.0372895394839847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03450910620737522</v>
+        <v>0.01684761449414482</v>
       </c>
       <c r="C19">
-        <v>0.01603526911223025</v>
+        <v>-0.0434246732352557</v>
       </c>
       <c r="D19">
-        <v>-0.03480731608799847</v>
+        <v>0.01068712551131467</v>
       </c>
       <c r="E19">
-        <v>0.03902137292083794</v>
+        <v>-0.007775969053194018</v>
       </c>
       <c r="F19">
-        <v>-0.06824498707029937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01628828517257702</v>
+      </c>
+      <c r="G19">
+        <v>0.04743466075321066</v>
+      </c>
+      <c r="H19">
+        <v>-0.05212126308387108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002526129556188408</v>
+        <v>0.003812432574358602</v>
       </c>
       <c r="C20">
-        <v>-0.01077064257759052</v>
+        <v>-0.02106955386914782</v>
       </c>
       <c r="D20">
-        <v>-0.00245772069767398</v>
+        <v>0.01009417493103163</v>
       </c>
       <c r="E20">
-        <v>0.01353833626184878</v>
+        <v>0.0003786599118301284</v>
       </c>
       <c r="F20">
-        <v>-0.04444245035442131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01918827609374704</v>
+      </c>
+      <c r="G20">
+        <v>0.03654740622307336</v>
+      </c>
+      <c r="H20">
+        <v>-0.02925287331862842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01996127185636986</v>
+        <v>0.009354569563266411</v>
       </c>
       <c r="C21">
-        <v>-0.01322414899625968</v>
+        <v>-0.02068350576655664</v>
       </c>
       <c r="D21">
-        <v>-0.02740671881632371</v>
+        <v>0.01223413783702708</v>
       </c>
       <c r="E21">
-        <v>0.01197705147147815</v>
+        <v>-0.01175950242971095</v>
       </c>
       <c r="F21">
-        <v>-0.01750024762062171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02164234539182197</v>
+      </c>
+      <c r="G21">
+        <v>0.02220581677820984</v>
+      </c>
+      <c r="H21">
+        <v>-0.04323487058552281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02426399917584775</v>
+        <v>0.009612235583015771</v>
       </c>
       <c r="C24">
-        <v>0.01868444170207385</v>
+        <v>-0.0418246425208406</v>
       </c>
       <c r="D24">
-        <v>-0.01663123992074202</v>
+        <v>0.0042884976767716</v>
       </c>
       <c r="E24">
-        <v>0.02144521435025658</v>
+        <v>-0.004598664574815582</v>
       </c>
       <c r="F24">
-        <v>-0.02598250290046459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008049236027502528</v>
+      </c>
+      <c r="G24">
+        <v>0.008582068790122438</v>
+      </c>
+      <c r="H24">
+        <v>-0.04347224519176305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02948449725208221</v>
+        <v>0.0242159089338082</v>
       </c>
       <c r="C25">
-        <v>0.01913862753442078</v>
+        <v>-0.04983155948400816</v>
       </c>
       <c r="D25">
-        <v>-0.02665713233099375</v>
+        <v>0.007111330758016597</v>
       </c>
       <c r="E25">
-        <v>0.01987331467808395</v>
+        <v>-0.01090762296570123</v>
       </c>
       <c r="F25">
-        <v>-0.02954252923098408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01003658358988734</v>
+      </c>
+      <c r="G25">
+        <v>0.0179491203872916</v>
+      </c>
+      <c r="H25">
+        <v>-0.03996436180879458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01393945103667798</v>
+        <v>0.006629501661852652</v>
       </c>
       <c r="C26">
-        <v>0.004886185165362868</v>
+        <v>-0.005771669295672809</v>
       </c>
       <c r="D26">
-        <v>-0.01348733155842894</v>
+        <v>0.02215493042052553</v>
       </c>
       <c r="E26">
-        <v>-0.01037785557639269</v>
+        <v>-0.003159547561286114</v>
       </c>
       <c r="F26">
-        <v>-0.0494450727934144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01324101748765379</v>
+      </c>
+      <c r="G26">
+        <v>0.009627251659854104</v>
+      </c>
+      <c r="H26">
+        <v>-0.02043420020071091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02820138478247954</v>
+        <v>0.008467316578237146</v>
       </c>
       <c r="C27">
-        <v>0.007977198101629085</v>
+        <v>-0.009078954077763612</v>
       </c>
       <c r="D27">
-        <v>0.002286026333065396</v>
+        <v>-0.001795170788422367</v>
       </c>
       <c r="E27">
-        <v>0.03145676522659879</v>
+        <v>-0.01000038073389121</v>
       </c>
       <c r="F27">
-        <v>-0.005035081975747131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.005564879367076656</v>
+      </c>
+      <c r="G27">
+        <v>0.008174033307923673</v>
+      </c>
+      <c r="H27">
+        <v>0.009966913415781613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07701058597850245</v>
+        <v>0.1910205285992677</v>
       </c>
       <c r="C28">
-        <v>0.01804341625033973</v>
+        <v>0.1801825152098706</v>
       </c>
       <c r="D28">
-        <v>0.2089778045876869</v>
+        <v>-0.02335978948568835</v>
       </c>
       <c r="E28">
-        <v>-0.09017390477848077</v>
+        <v>-0.000294652578112825</v>
       </c>
       <c r="F28">
-        <v>-0.04776998349889492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05021883630323036</v>
+      </c>
+      <c r="G28">
+        <v>-0.008354561288390778</v>
+      </c>
+      <c r="H28">
+        <v>0.01022356945680486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.024321232269261</v>
+        <v>0.01268178281503593</v>
       </c>
       <c r="C29">
-        <v>0.0002026037045868908</v>
+        <v>-0.01854439676802258</v>
       </c>
       <c r="D29">
-        <v>-0.01530349744975542</v>
+        <v>0.004813909211813687</v>
       </c>
       <c r="E29">
-        <v>0.01681250914213873</v>
+        <v>-0.01122397604742495</v>
       </c>
       <c r="F29">
-        <v>-0.03953913106123814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01619250898798483</v>
+      </c>
+      <c r="G29">
+        <v>0.0234799341723545</v>
+      </c>
+      <c r="H29">
+        <v>-0.009984605775326557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02912927613201425</v>
+        <v>0.02288765441844032</v>
       </c>
       <c r="C30">
-        <v>0.06296329568916384</v>
+        <v>-0.08806777509385852</v>
       </c>
       <c r="D30">
-        <v>-0.0521778212711204</v>
+        <v>0.02315800959866838</v>
       </c>
       <c r="E30">
-        <v>0.02652159363911108</v>
+        <v>0.02699082766261231</v>
       </c>
       <c r="F30">
-        <v>-0.08206634532254102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01338897109850766</v>
+      </c>
+      <c r="G30">
+        <v>0.05242951550606412</v>
+      </c>
+      <c r="H30">
+        <v>-0.07559115462876798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04577674979433251</v>
+        <v>0.03823435765664072</v>
       </c>
       <c r="C31">
-        <v>0.02946781380010671</v>
+        <v>-0.03242694264268505</v>
       </c>
       <c r="D31">
-        <v>-0.01677757867103676</v>
+        <v>-0.0008613388450038299</v>
       </c>
       <c r="E31">
-        <v>0.02304427475654879</v>
+        <v>-0.004963695292881284</v>
       </c>
       <c r="F31">
-        <v>-0.03183141513426049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01006239968769326</v>
+      </c>
+      <c r="G31">
+        <v>0.009055632678294795</v>
+      </c>
+      <c r="H31">
+        <v>-0.003602749055802189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02283454139828473</v>
+        <v>0.000591748608776896</v>
       </c>
       <c r="C32">
-        <v>-0.01928320108040042</v>
+        <v>-0.01394754482597602</v>
       </c>
       <c r="D32">
-        <v>-0.05020430923950642</v>
+        <v>-0.008405406124068468</v>
       </c>
       <c r="E32">
-        <v>0.04066935812942821</v>
+        <v>-0.0337880778394152</v>
       </c>
       <c r="F32">
-        <v>-0.03805890109819412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.007595558073928934</v>
+      </c>
+      <c r="G32">
+        <v>0.04819742145072511</v>
+      </c>
+      <c r="H32">
+        <v>-0.04988704836037431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0287152649797181</v>
+        <v>0.01762489480775439</v>
       </c>
       <c r="C33">
-        <v>0.04003332215990977</v>
+        <v>-0.04834775497530121</v>
       </c>
       <c r="D33">
-        <v>-0.0457672833146443</v>
+        <v>0.01074003216335088</v>
       </c>
       <c r="E33">
-        <v>0.009847452423172387</v>
+        <v>0.02216381237022715</v>
       </c>
       <c r="F33">
-        <v>-0.05490021118586307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01741291401381076</v>
+      </c>
+      <c r="G33">
+        <v>0.01896635801888343</v>
+      </c>
+      <c r="H33">
+        <v>-0.04928788987024704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03269851682024442</v>
+        <v>0.02300827772421333</v>
       </c>
       <c r="C34">
-        <v>0.01401159403435527</v>
+        <v>-0.05047749122128393</v>
       </c>
       <c r="D34">
-        <v>-0.03448131340270086</v>
+        <v>-0.008985477653375118</v>
       </c>
       <c r="E34">
-        <v>0.0316870861092567</v>
+        <v>-0.01832034131089619</v>
       </c>
       <c r="F34">
-        <v>-0.02197573399458001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01026900951296504</v>
+      </c>
+      <c r="G34">
+        <v>0.01159131501793737</v>
+      </c>
+      <c r="H34">
+        <v>-0.0334366644080857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01985101005584544</v>
+        <v>0.01428169096190876</v>
       </c>
       <c r="C36">
-        <v>-1.938514559945481e-05</v>
+        <v>-0.00660615970071621</v>
       </c>
       <c r="D36">
-        <v>-0.005836565324723872</v>
+        <v>0.00864017234448696</v>
       </c>
       <c r="E36">
-        <v>0.0109158497377583</v>
+        <v>-0.007103919199586241</v>
       </c>
       <c r="F36">
-        <v>-0.02564992142309276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01160183786217306</v>
+      </c>
+      <c r="G36">
+        <v>0.008872483270109321</v>
+      </c>
+      <c r="H36">
+        <v>-0.01407121661376799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01219684914172986</v>
+        <v>0.02645612091749745</v>
       </c>
       <c r="C38">
-        <v>0.01040916931910277</v>
+        <v>-0.02176428596529421</v>
       </c>
       <c r="D38">
-        <v>0.001728235184886797</v>
+        <v>-0.0113494145264614</v>
       </c>
       <c r="E38">
-        <v>-0.01935942794364142</v>
+        <v>0.0002447198452313402</v>
       </c>
       <c r="F38">
-        <v>-0.0429357769417051</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001982658307083926</v>
+      </c>
+      <c r="G38">
+        <v>0.0157861545063595</v>
+      </c>
+      <c r="H38">
+        <v>-0.03548075565033099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02416971974134436</v>
+        <v>0.002587500070171288</v>
       </c>
       <c r="C39">
-        <v>0.01833519656679219</v>
+        <v>-0.08740565793296295</v>
       </c>
       <c r="D39">
-        <v>-0.05659610542972082</v>
+        <v>0.009952929303766197</v>
       </c>
       <c r="E39">
-        <v>0.02413685854550408</v>
+        <v>0.00440885567591422</v>
       </c>
       <c r="F39">
-        <v>-0.04337910594790875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008249982704831993</v>
+      </c>
+      <c r="G39">
+        <v>0.02481844260962081</v>
+      </c>
+      <c r="H39">
+        <v>-0.07801903961038609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01024208420041256</v>
+        <v>0.01959039447139061</v>
       </c>
       <c r="C40">
-        <v>0.04244978585639763</v>
+        <v>-0.03048022511080523</v>
       </c>
       <c r="D40">
-        <v>-0.01515753089864177</v>
+        <v>0.007978162147676479</v>
       </c>
       <c r="E40">
-        <v>0.03131645567909855</v>
+        <v>0.01267498462277782</v>
       </c>
       <c r="F40">
-        <v>-0.0286414557805366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02561110641822355</v>
+      </c>
+      <c r="G40">
+        <v>0.02226454329005034</v>
+      </c>
+      <c r="H40">
+        <v>-0.04847299626481299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008003997803934357</v>
+        <v>0.01223050847511061</v>
       </c>
       <c r="C41">
-        <v>0.001436827404501911</v>
+        <v>0.007862094525358363</v>
       </c>
       <c r="D41">
-        <v>-0.004778004503675131</v>
+        <v>0.001764471078959883</v>
       </c>
       <c r="E41">
-        <v>-0.01425393210053129</v>
+        <v>-0.002683864677297987</v>
       </c>
       <c r="F41">
-        <v>-0.005598720404727755</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005952312410316686</v>
+      </c>
+      <c r="G41">
+        <v>-0.008405763266679269</v>
+      </c>
+      <c r="H41">
+        <v>0.0011826242346473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2233859376602846</v>
+        <v>0.08468916879529526</v>
       </c>
       <c r="C42">
-        <v>0.2886646742216443</v>
+        <v>-0.2120137301183994</v>
       </c>
       <c r="D42">
-        <v>-0.2951974522695176</v>
+        <v>0.1230037673585635</v>
       </c>
       <c r="E42">
-        <v>-0.8153735217267013</v>
+        <v>0.3422813348430411</v>
       </c>
       <c r="F42">
-        <v>0.27434475141988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3532708532788756</v>
+      </c>
+      <c r="G42">
+        <v>-0.8174078987683508</v>
+      </c>
+      <c r="H42">
+        <v>-0.06950513630478623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0107640815290073</v>
+        <v>0.0139037797743362</v>
       </c>
       <c r="C43">
-        <v>0.006274865369532631</v>
+        <v>0.006170175108441216</v>
       </c>
       <c r="D43">
-        <v>-0.006900546921772538</v>
+        <v>0.00237962112035878</v>
       </c>
       <c r="E43">
-        <v>-0.002760884722844088</v>
+        <v>-0.00216743624261321</v>
       </c>
       <c r="F43">
-        <v>-0.02408259951398809</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004445325746243849</v>
+      </c>
+      <c r="G43">
+        <v>-0.007754972691660687</v>
+      </c>
+      <c r="H43">
+        <v>-0.007845765400018096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02672694519622118</v>
+        <v>0.008082066372479999</v>
       </c>
       <c r="C44">
-        <v>-0.007306915667314532</v>
+        <v>-0.04045486482377568</v>
       </c>
       <c r="D44">
-        <v>-0.02695372452831707</v>
+        <v>0.003812821183052831</v>
       </c>
       <c r="E44">
-        <v>-0.00544705342190233</v>
+        <v>-0.007214371199788015</v>
       </c>
       <c r="F44">
-        <v>-0.08286391675265566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03005737544053501</v>
+      </c>
+      <c r="G44">
+        <v>0.01802847321707587</v>
+      </c>
+      <c r="H44">
+        <v>-0.06003629845783937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01905147154697216</v>
+        <v>0.004017644471102996</v>
       </c>
       <c r="C46">
-        <v>0.00856132047496533</v>
+        <v>-0.01333009122898994</v>
       </c>
       <c r="D46">
-        <v>-0.04529875089746128</v>
+        <v>0.01022687356427267</v>
       </c>
       <c r="E46">
-        <v>0.02124277589282554</v>
+        <v>-0.004257206546981536</v>
       </c>
       <c r="F46">
-        <v>-0.0559628332026258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01271364094526217</v>
+      </c>
+      <c r="G46">
+        <v>0.01601692288841287</v>
+      </c>
+      <c r="H46">
+        <v>-0.01546279134973991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07396978212450513</v>
+        <v>0.05401326232244645</v>
       </c>
       <c r="C47">
-        <v>0.05067258316372008</v>
+        <v>-0.06869739087097339</v>
       </c>
       <c r="D47">
-        <v>-0.007035870389634274</v>
+        <v>-0.01014729469890339</v>
       </c>
       <c r="E47">
-        <v>0.03669206649353363</v>
+        <v>-0.01168536196323176</v>
       </c>
       <c r="F47">
-        <v>-0.004043120503932254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.000405942968143531</v>
+      </c>
+      <c r="G47">
+        <v>0.003791017182230167</v>
+      </c>
+      <c r="H47">
+        <v>0.03547453589096859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01762362651189449</v>
+        <v>0.01354886284787786</v>
       </c>
       <c r="C48">
-        <v>0.008725683085064518</v>
+        <v>-0.01569895950252322</v>
       </c>
       <c r="D48">
-        <v>-0.01326620174763544</v>
+        <v>-0.0004756864900246193</v>
       </c>
       <c r="E48">
-        <v>0.0105219217792837</v>
+        <v>-0.002194088189229011</v>
       </c>
       <c r="F48">
-        <v>-0.03120910002880619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006798716836671882</v>
+      </c>
+      <c r="G48">
+        <v>0.01108328815825279</v>
+      </c>
+      <c r="H48">
+        <v>-0.01913355723306564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08136907512289375</v>
+        <v>0.05774526305755274</v>
       </c>
       <c r="C50">
-        <v>0.02818775344169554</v>
+        <v>-0.06329431364256861</v>
       </c>
       <c r="D50">
-        <v>-0.02788794123298721</v>
+        <v>-0.008573223702835784</v>
       </c>
       <c r="E50">
-        <v>0.01971225564626154</v>
+        <v>-0.02409659029603527</v>
       </c>
       <c r="F50">
-        <v>-0.01734179677156119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0155928318558771</v>
+      </c>
+      <c r="G50">
+        <v>0.001807510570468302</v>
+      </c>
+      <c r="H50">
+        <v>0.01909233699714811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01561021599011325</v>
+        <v>0.0126371340720604</v>
       </c>
       <c r="C51">
-        <v>-0.005194591860655755</v>
+        <v>-0.01770653578633336</v>
       </c>
       <c r="D51">
-        <v>0.006070735937331153</v>
+        <v>0.005067904506509169</v>
       </c>
       <c r="E51">
-        <v>0.003052987917882023</v>
+        <v>-0.009433400945593319</v>
       </c>
       <c r="F51">
-        <v>-0.09456533111554769</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01308264104315781</v>
+      </c>
+      <c r="G51">
+        <v>0.02170478003838781</v>
+      </c>
+      <c r="H51">
+        <v>-0.05079227047581204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08605599308370139</v>
+        <v>0.07165128545728747</v>
       </c>
       <c r="C53">
-        <v>0.05297621122110831</v>
+        <v>-0.1059594101514871</v>
       </c>
       <c r="D53">
-        <v>-0.0384485469935738</v>
+        <v>-0.01114587821901703</v>
       </c>
       <c r="E53">
-        <v>0.05091205314583903</v>
+        <v>-0.0215486566361463</v>
       </c>
       <c r="F53">
-        <v>0.02971107369005936</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01880309208340475</v>
+      </c>
+      <c r="G53">
+        <v>-0.003775125806767784</v>
+      </c>
+      <c r="H53">
+        <v>0.03692375064393894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02685836569269102</v>
+        <v>0.02370670274624161</v>
       </c>
       <c r="C54">
-        <v>0.001882702561602334</v>
+        <v>-0.0009591498848660931</v>
       </c>
       <c r="D54">
-        <v>0.002792861993299042</v>
+        <v>-0.007080588707610903</v>
       </c>
       <c r="E54">
-        <v>0.02196441096513347</v>
+        <v>-0.004721163722291156</v>
       </c>
       <c r="F54">
-        <v>-0.03034617820341681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02117330619103917</v>
+      </c>
+      <c r="G54">
+        <v>0.02517419754100804</v>
+      </c>
+      <c r="H54">
+        <v>-0.008066460796516578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07942652589962482</v>
+        <v>0.05179410232439079</v>
       </c>
       <c r="C55">
-        <v>0.04912157997045812</v>
+        <v>-0.09447801782073061</v>
       </c>
       <c r="D55">
-        <v>-0.0448574316241109</v>
+        <v>-0.008596783176437967</v>
       </c>
       <c r="E55">
-        <v>0.03702091690836123</v>
+        <v>-0.01340896086035974</v>
       </c>
       <c r="F55">
-        <v>0.03207140599681919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.001513758952788829</v>
+      </c>
+      <c r="G55">
+        <v>0.0006172103493692468</v>
+      </c>
+      <c r="H55">
+        <v>0.03960211714181235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.118348703216467</v>
+        <v>0.09630022655903714</v>
       </c>
       <c r="C56">
-        <v>0.08077484028791033</v>
+        <v>-0.1357015963216952</v>
       </c>
       <c r="D56">
-        <v>-0.01891224121774067</v>
+        <v>-0.0203056446532297</v>
       </c>
       <c r="E56">
-        <v>0.08360785628443081</v>
+        <v>-0.03091606699835184</v>
       </c>
       <c r="F56">
-        <v>0.05393845728289112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.04155267122382372</v>
+      </c>
+      <c r="G56">
+        <v>-0.009717289034121569</v>
+      </c>
+      <c r="H56">
+        <v>0.08129530092207209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03315367819791008</v>
+        <v>0.02255722241842664</v>
       </c>
       <c r="C57">
-        <v>0.0230060626054355</v>
+        <v>-0.03015100489857866</v>
       </c>
       <c r="D57">
-        <v>-0.01887775227789401</v>
+        <v>0.02215890642432649</v>
       </c>
       <c r="E57">
-        <v>-0.03232099982001662</v>
+        <v>0.01578439091793829</v>
       </c>
       <c r="F57">
-        <v>-0.05171085051008708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.04014155638252292</v>
+      </c>
+      <c r="G57">
+        <v>0.03324817678674816</v>
+      </c>
+      <c r="H57">
+        <v>-0.06037264463771495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1334232401493284</v>
+        <v>0.08501384661632869</v>
       </c>
       <c r="C58">
-        <v>0.2320072912578679</v>
+        <v>-0.1802949250059537</v>
       </c>
       <c r="D58">
-        <v>-0.1971481336884693</v>
+        <v>0.002030142418405728</v>
       </c>
       <c r="E58">
-        <v>0.01437177413457486</v>
+        <v>0.5226880606029212</v>
       </c>
       <c r="F58">
-        <v>-0.5940959221598372</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5755108228310142</v>
+      </c>
+      <c r="G58">
+        <v>0.5130360332364849</v>
+      </c>
+      <c r="H58">
+        <v>0.1615271748088114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05553352694823222</v>
+        <v>0.2111892026481013</v>
       </c>
       <c r="C59">
-        <v>0.03776110649307436</v>
+        <v>0.1663794402334888</v>
       </c>
       <c r="D59">
-        <v>0.1890210523956379</v>
+        <v>-0.03179533024922672</v>
       </c>
       <c r="E59">
-        <v>-0.04878101254293467</v>
+        <v>0.01258098615330041</v>
       </c>
       <c r="F59">
-        <v>-0.07756934921702791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01058385517558287</v>
+      </c>
+      <c r="G59">
+        <v>0.01054249284160864</v>
+      </c>
+      <c r="H59">
+        <v>-0.02048370545924984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1184153762499215</v>
+        <v>0.2202615718038992</v>
       </c>
       <c r="C60">
-        <v>0.1145571525213456</v>
+        <v>-0.07317187747079675</v>
       </c>
       <c r="D60">
-        <v>0.01900850624133685</v>
+        <v>-0.01199458552102443</v>
       </c>
       <c r="E60">
-        <v>-0.02309036417584322</v>
+        <v>0.02915243065461319</v>
       </c>
       <c r="F60">
-        <v>-0.1753918092091191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1288209538728695</v>
+      </c>
+      <c r="G60">
+        <v>0.05575477574159358</v>
+      </c>
+      <c r="H60">
+        <v>-0.3900312365744623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02084566013841538</v>
+        <v>0.01289196078952225</v>
       </c>
       <c r="C61">
-        <v>0.01363885795473201</v>
+        <v>-0.06242914806993097</v>
       </c>
       <c r="D61">
-        <v>-0.0418962486198318</v>
+        <v>0.002124719723826505</v>
       </c>
       <c r="E61">
-        <v>0.007804916848554926</v>
+        <v>-0.004958017096068366</v>
       </c>
       <c r="F61">
-        <v>-0.02032109422073194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008191178857960967</v>
+      </c>
+      <c r="G61">
+        <v>0.02109779990169751</v>
+      </c>
+      <c r="H61">
+        <v>-0.05780395444794077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01686682735813663</v>
+        <v>0.00771660295720479</v>
       </c>
       <c r="C63">
-        <v>0.004125449878799302</v>
+        <v>-0.02322765416468734</v>
       </c>
       <c r="D63">
-        <v>-0.01882385670861094</v>
+        <v>0.006393245521293738</v>
       </c>
       <c r="E63">
-        <v>0.003257370313800778</v>
+        <v>-0.01040712938067944</v>
       </c>
       <c r="F63">
-        <v>-0.00156397326757168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005370930530983252</v>
+      </c>
+      <c r="G63">
+        <v>0.01019722119368102</v>
+      </c>
+      <c r="H63">
+        <v>-0.01234800708022096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03780598586711512</v>
+        <v>0.03474450768429661</v>
       </c>
       <c r="C64">
-        <v>0.00663648230287648</v>
+        <v>-0.04484634641297432</v>
       </c>
       <c r="D64">
-        <v>-0.02269305439684346</v>
+        <v>0.0006814048528119501</v>
       </c>
       <c r="E64">
-        <v>0.02019984642530041</v>
+        <v>-0.02063964525351472</v>
       </c>
       <c r="F64">
-        <v>-0.008548918273242672</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.00978673887821231</v>
+      </c>
+      <c r="G64">
+        <v>-0.01157808935043508</v>
+      </c>
+      <c r="H64">
+        <v>-0.04048855844259117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03746056108257742</v>
+        <v>0.03974534439319882</v>
       </c>
       <c r="C65">
-        <v>0.01858455277758088</v>
+        <v>-0.08321636337413871</v>
       </c>
       <c r="D65">
-        <v>-0.03887073959456646</v>
+        <v>0.01190701276541158</v>
       </c>
       <c r="E65">
-        <v>0.03212495273020361</v>
+        <v>-0.01494612688044543</v>
       </c>
       <c r="F65">
-        <v>-0.01364726317731188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03589806060758941</v>
+      </c>
+      <c r="G65">
+        <v>0.02895248721434551</v>
+      </c>
+      <c r="H65">
+        <v>-0.06532847564134056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02975170058294719</v>
+        <v>0.01233857866585962</v>
       </c>
       <c r="C66">
-        <v>0.02961615857866002</v>
+        <v>-0.1168502316985952</v>
       </c>
       <c r="D66">
-        <v>-0.05906077527637908</v>
+        <v>0.006897933222637934</v>
       </c>
       <c r="E66">
-        <v>0.05171611539132147</v>
+        <v>0.000192080024476489</v>
       </c>
       <c r="F66">
-        <v>-0.03207513152207586</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03075895967070649</v>
+      </c>
+      <c r="G66">
+        <v>0.04064605847499315</v>
+      </c>
+      <c r="H66">
+        <v>-0.08705931040420839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02089243561423691</v>
+        <v>0.04849072450731488</v>
       </c>
       <c r="C67">
-        <v>0.01655421796209394</v>
+        <v>-0.02991398681903673</v>
       </c>
       <c r="D67">
-        <v>0.01058609411008184</v>
+        <v>-0.01163244983222441</v>
       </c>
       <c r="E67">
-        <v>-0.01245824870497834</v>
+        <v>-0.004891813069230498</v>
       </c>
       <c r="F67">
-        <v>-0.02614598450150672</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01106165006008724</v>
+      </c>
+      <c r="G67">
+        <v>0.0162360828695239</v>
+      </c>
+      <c r="H67">
+        <v>-0.03365474767498998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07000476454166976</v>
+        <v>0.2080274610880405</v>
       </c>
       <c r="C68">
-        <v>0.03316129229540878</v>
+        <v>0.2053946698330376</v>
       </c>
       <c r="D68">
-        <v>0.2072844691339449</v>
+        <v>-0.01239389997446816</v>
       </c>
       <c r="E68">
-        <v>-0.05768288649156995</v>
+        <v>0.02240950733517041</v>
       </c>
       <c r="F68">
-        <v>-0.07457554921734784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05970705469646517</v>
+      </c>
+      <c r="G68">
+        <v>-0.006819103004535645</v>
+      </c>
+      <c r="H68">
+        <v>0.03599875847709894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05856786088580195</v>
+        <v>0.05544598715975589</v>
       </c>
       <c r="C69">
-        <v>0.04014828550332109</v>
+        <v>-0.06264374130271358</v>
       </c>
       <c r="D69">
-        <v>-0.01102322764819172</v>
+        <v>-0.01461706449185027</v>
       </c>
       <c r="E69">
-        <v>0.03753952073340822</v>
+        <v>-0.01887308066633742</v>
       </c>
       <c r="F69">
-        <v>-0.005989719603499872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02173959010102379</v>
+      </c>
+      <c r="G69">
+        <v>0.005697921176881078</v>
+      </c>
+      <c r="H69">
+        <v>0.002338948825892024</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07351412679381496</v>
+        <v>0.1833333904775702</v>
       </c>
       <c r="C71">
-        <v>0.04171037265379356</v>
+        <v>0.159886963434636</v>
       </c>
       <c r="D71">
-        <v>0.2110789753657038</v>
+        <v>-0.01677387417293102</v>
       </c>
       <c r="E71">
-        <v>-0.09929945613487029</v>
+        <v>0.02569188286711703</v>
       </c>
       <c r="F71">
-        <v>-0.07911274975680337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06353654540972328</v>
+      </c>
+      <c r="G71">
+        <v>-0.01336670005970142</v>
+      </c>
+      <c r="H71">
+        <v>0.0119237011843613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09567932996256186</v>
+        <v>0.05446736792338391</v>
       </c>
       <c r="C72">
-        <v>0.08045312562581793</v>
+        <v>-0.1124132362910892</v>
       </c>
       <c r="D72">
-        <v>-0.06911689501231419</v>
+        <v>-0.01457477460055306</v>
       </c>
       <c r="E72">
-        <v>0.08473555111356283</v>
+        <v>0.0002844697127018969</v>
       </c>
       <c r="F72">
-        <v>-0.0886676843284299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04194928504843112</v>
+      </c>
+      <c r="G72">
+        <v>0.05775451995496132</v>
+      </c>
+      <c r="H72">
+        <v>-0.09235589115948765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1363920536026051</v>
+        <v>0.2813266838564246</v>
       </c>
       <c r="C73">
-        <v>0.1898678218047469</v>
+        <v>-0.1534367992704585</v>
       </c>
       <c r="D73">
-        <v>0.01166657516626687</v>
+        <v>-0.009639614449561455</v>
       </c>
       <c r="E73">
-        <v>-0.04267892132919307</v>
+        <v>0.06462818702155569</v>
       </c>
       <c r="F73">
-        <v>-0.2035469259649785</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1761353471489447</v>
+      </c>
+      <c r="G73">
+        <v>0.05864681894651166</v>
+      </c>
+      <c r="H73">
+        <v>-0.4738581034824528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1110497647724853</v>
+        <v>0.09505037855579547</v>
       </c>
       <c r="C74">
-        <v>0.07671074068314201</v>
+        <v>-0.1391626434316222</v>
       </c>
       <c r="D74">
-        <v>-0.0249417571363764</v>
+        <v>-0.02011284440832001</v>
       </c>
       <c r="E74">
-        <v>0.05874215167546274</v>
+        <v>-0.02702273819168355</v>
       </c>
       <c r="F74">
-        <v>0.07299228854399203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02837402668594907</v>
+      </c>
+      <c r="G74">
+        <v>-0.003179899803336221</v>
+      </c>
+      <c r="H74">
+        <v>0.05448947860171405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1922627871817078</v>
+        <v>0.1998892179092396</v>
       </c>
       <c r="C75">
-        <v>0.1517413479336052</v>
+        <v>-0.2333516316647287</v>
       </c>
       <c r="D75">
-        <v>-0.01197169213759908</v>
+        <v>-0.04413375459441657</v>
       </c>
       <c r="E75">
-        <v>0.1714601135493487</v>
+        <v>-0.03993886961618207</v>
       </c>
       <c r="F75">
-        <v>0.1033586816907953</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08826163242331087</v>
+      </c>
+      <c r="G75">
+        <v>0.002390064715844836</v>
+      </c>
+      <c r="H75">
+        <v>0.1727835618409631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2488253781390584</v>
+        <v>0.1488394711174094</v>
       </c>
       <c r="C76">
-        <v>0.1492671547881101</v>
+        <v>-0.2047748998097872</v>
       </c>
       <c r="D76">
-        <v>-0.0238142009228829</v>
+        <v>-0.03752954480713811</v>
       </c>
       <c r="E76">
-        <v>0.1924419331226546</v>
+        <v>-0.07658403136039629</v>
       </c>
       <c r="F76">
-        <v>0.2047760838289734</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.06241461971489285</v>
+      </c>
+      <c r="G76">
+        <v>-0.01453169968003358</v>
+      </c>
+      <c r="H76">
+        <v>0.1525545370240806</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08835471776745685</v>
+        <v>0.04426256454091974</v>
       </c>
       <c r="C77">
-        <v>0.07421565374021588</v>
+        <v>-0.08881619179761779</v>
       </c>
       <c r="D77">
-        <v>-0.06463934625750101</v>
+        <v>0.009313077674743174</v>
       </c>
       <c r="E77">
-        <v>-0.03085337307426683</v>
+        <v>0.01908265926706273</v>
       </c>
       <c r="F77">
-        <v>-0.1066922579420109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0462116427493719</v>
+      </c>
+      <c r="G77">
+        <v>0.01858696685529044</v>
+      </c>
+      <c r="H77">
+        <v>-0.01665864694007171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05454452433970609</v>
+        <v>0.02058506244985672</v>
       </c>
       <c r="C78">
-        <v>0.02483711003451352</v>
+        <v>-0.07690247584615306</v>
       </c>
       <c r="D78">
-        <v>-0.09990254555828185</v>
+        <v>0.003842675222391102</v>
       </c>
       <c r="E78">
-        <v>0.03214345839829596</v>
+        <v>-0.005500874048421422</v>
       </c>
       <c r="F78">
-        <v>-0.07176294646140158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01148837719603196</v>
+      </c>
+      <c r="G78">
+        <v>0.03860129777718967</v>
+      </c>
+      <c r="H78">
+        <v>-0.08898351629236659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6431637390063448</v>
+        <v>0.1020231823857995</v>
       </c>
       <c r="C80">
-        <v>-0.737050784521094</v>
+        <v>-0.1129058308344718</v>
       </c>
       <c r="D80">
-        <v>-0.07626144050851701</v>
+        <v>-0.004372210674742347</v>
       </c>
       <c r="E80">
-        <v>-0.08061753417676902</v>
+        <v>-0.7437776675492815</v>
       </c>
       <c r="F80">
-        <v>-0.04858839261575157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.6038870602494177</v>
+      </c>
+      <c r="G80">
+        <v>-0.003166070461186969</v>
+      </c>
+      <c r="H80">
+        <v>-0.09980536789210297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1613368557206833</v>
+        <v>0.1289370329671276</v>
       </c>
       <c r="C81">
-        <v>0.1079197178281536</v>
+        <v>-0.1473248823311605</v>
       </c>
       <c r="D81">
-        <v>-0.001727158493545933</v>
+        <v>-0.02744231567294437</v>
       </c>
       <c r="E81">
-        <v>0.1325746337096601</v>
+        <v>-0.04074783457318397</v>
       </c>
       <c r="F81">
-        <v>0.0895221064072937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04189717207007258</v>
+      </c>
+      <c r="G81">
+        <v>-0.004963376183182017</v>
+      </c>
+      <c r="H81">
+        <v>0.1075711683715506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02566689404204231</v>
+        <v>0.02067900496799742</v>
       </c>
       <c r="C83">
-        <v>0.02408654213868148</v>
+        <v>-0.02334317043413107</v>
       </c>
       <c r="D83">
-        <v>-0.02358932473320556</v>
+        <v>0.003015014048232375</v>
       </c>
       <c r="E83">
-        <v>-0.01760292805106648</v>
+        <v>0.01018916767630933</v>
       </c>
       <c r="F83">
-        <v>-0.04919858320758639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02026386077868647</v>
+      </c>
+      <c r="G83">
+        <v>0.01947699939992243</v>
+      </c>
+      <c r="H83">
+        <v>-0.04672768402382547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2092317913421046</v>
+        <v>0.1788085436479957</v>
       </c>
       <c r="C85">
-        <v>0.1564311472569539</v>
+        <v>-0.2225763785155731</v>
       </c>
       <c r="D85">
-        <v>-0.02587468541101759</v>
+        <v>-0.02868384778965535</v>
       </c>
       <c r="E85">
-        <v>0.1744749270240648</v>
+        <v>-0.04537013337366409</v>
       </c>
       <c r="F85">
-        <v>0.142867894654822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1131183790586069</v>
+      </c>
+      <c r="G85">
+        <v>-0.03112039360405899</v>
+      </c>
+      <c r="H85">
+        <v>0.1149988813562411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007827700532285979</v>
+        <v>0.01042261279757047</v>
       </c>
       <c r="C86">
-        <v>-0.001776203184301624</v>
+        <v>-0.03524689102980318</v>
       </c>
       <c r="D86">
-        <v>-0.06554955055127366</v>
+        <v>0.006976287661463827</v>
       </c>
       <c r="E86">
-        <v>-0.00620561537375803</v>
+        <v>0.001010402989178122</v>
       </c>
       <c r="F86">
-        <v>-0.04053848166875045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02658435475077685</v>
+      </c>
+      <c r="G86">
+        <v>0.005160806080171709</v>
+      </c>
+      <c r="H86">
+        <v>-0.07590063038633969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02749202101664975</v>
+        <v>0.005000766382211099</v>
       </c>
       <c r="C87">
-        <v>0.01640551324359244</v>
+        <v>-0.03979119313773444</v>
       </c>
       <c r="D87">
-        <v>-0.04020387814778057</v>
+        <v>0.008699795031164</v>
       </c>
       <c r="E87">
-        <v>0.007382430200743193</v>
+        <v>0.012990924393486</v>
       </c>
       <c r="F87">
-        <v>-0.09392007361397055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03735732042868492</v>
+      </c>
+      <c r="G87">
+        <v>0.04629798696863996</v>
+      </c>
+      <c r="H87">
+        <v>-0.08143914884416215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01829831963852345</v>
+        <v>0.04140050520078312</v>
       </c>
       <c r="C88">
-        <v>-0.004142065911200926</v>
+        <v>-0.01844672313300429</v>
       </c>
       <c r="D88">
-        <v>-0.0003125141088556838</v>
+        <v>0.0167130136096706</v>
       </c>
       <c r="E88">
-        <v>0.007248055911838302</v>
+        <v>-0.02984701562790727</v>
       </c>
       <c r="F88">
-        <v>0.02170437467441749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01333133651998658</v>
+      </c>
+      <c r="G88">
+        <v>0.0008626524869289217</v>
+      </c>
+      <c r="H88">
+        <v>-0.005291935393317445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09658144006873036</v>
+        <v>0.3250514690703642</v>
       </c>
       <c r="C89">
-        <v>0.06610294035810688</v>
+        <v>0.2870169501964252</v>
       </c>
       <c r="D89">
-        <v>0.348978151875227</v>
+        <v>-0.03001955295538796</v>
       </c>
       <c r="E89">
-        <v>-0.06725107432180186</v>
+        <v>0.01112946446384075</v>
       </c>
       <c r="F89">
-        <v>-0.09029034877592965</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.001480038197962204</v>
+      </c>
+      <c r="G89">
+        <v>-0.02623903247752474</v>
+      </c>
+      <c r="H89">
+        <v>0.01184868037749082</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08434369180642812</v>
+        <v>0.2688947114070382</v>
       </c>
       <c r="C90">
-        <v>0.02711768886143524</v>
+        <v>0.2632168373671863</v>
       </c>
       <c r="D90">
-        <v>0.3503377990337299</v>
+        <v>-0.02781402644902115</v>
       </c>
       <c r="E90">
-        <v>-0.09008251866967099</v>
+        <v>0.01395497041820716</v>
       </c>
       <c r="F90">
-        <v>-0.03955315582817746</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04937939004037025</v>
+      </c>
+      <c r="G90">
+        <v>-0.0277394197471039</v>
+      </c>
+      <c r="H90">
+        <v>0.05745356473041543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2433466364572738</v>
+        <v>0.1918050188037255</v>
       </c>
       <c r="C91">
-        <v>0.2015651727819354</v>
+        <v>-0.2107077209080965</v>
       </c>
       <c r="D91">
-        <v>-0.0331787834579958</v>
+        <v>-0.04157722835525582</v>
       </c>
       <c r="E91">
-        <v>0.156989046054038</v>
+        <v>-0.03414972130340211</v>
       </c>
       <c r="F91">
-        <v>0.2191877433919627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08737775857014937</v>
+      </c>
+      <c r="G91">
+        <v>-0.03082534991673514</v>
+      </c>
+      <c r="H91">
+        <v>0.1922707748201164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1513355643811096</v>
+        <v>0.2815793426267129</v>
       </c>
       <c r="C92">
-        <v>0.0863296125369602</v>
+        <v>0.1741120643913315</v>
       </c>
       <c r="D92">
-        <v>0.4392517779570944</v>
+        <v>-0.07006391424245031</v>
       </c>
       <c r="E92">
-        <v>0.007871892584780042</v>
+        <v>0.001269699203379167</v>
       </c>
       <c r="F92">
-        <v>0.1259742191929534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04986980609485178</v>
+      </c>
+      <c r="G92">
+        <v>0.004996947102092889</v>
+      </c>
+      <c r="H92">
+        <v>0.1542983762571024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08278154356882092</v>
+        <v>0.3029502707883962</v>
       </c>
       <c r="C93">
-        <v>0.0770129548170301</v>
+        <v>0.2601288530363117</v>
       </c>
       <c r="D93">
-        <v>0.4103537254774085</v>
+        <v>-0.03738808001869733</v>
       </c>
       <c r="E93">
-        <v>-0.1404770242192548</v>
+        <v>0.04310404024380923</v>
       </c>
       <c r="F93">
-        <v>-0.05264346614318311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0217487270519411</v>
+      </c>
+      <c r="G93">
+        <v>-0.03799313187352827</v>
+      </c>
+      <c r="H93">
+        <v>-0.01040755395540686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2252567433553204</v>
+        <v>0.2337949007078779</v>
       </c>
       <c r="C94">
-        <v>0.1987791835605406</v>
+        <v>-0.2331274016961155</v>
       </c>
       <c r="D94">
-        <v>-0.02574715701480346</v>
+        <v>-0.03199648611933864</v>
       </c>
       <c r="E94">
-        <v>0.2445466516840911</v>
+        <v>-0.05187631898043182</v>
       </c>
       <c r="F94">
-        <v>0.1423008190940313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1976274863979388</v>
+      </c>
+      <c r="G94">
+        <v>-0.005417348011364981</v>
+      </c>
+      <c r="H94">
+        <v>0.4160840143774782</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.007374644460258815</v>
+        <v>0.03093209081659152</v>
       </c>
       <c r="C95">
-        <v>0.09728966644018724</v>
+        <v>-0.1021779600147398</v>
       </c>
       <c r="D95">
-        <v>-0.02816743751753734</v>
+        <v>-0.009994075462394263</v>
       </c>
       <c r="E95">
-        <v>0.0324632152750238</v>
+        <v>0.09937814878720182</v>
       </c>
       <c r="F95">
-        <v>-0.01400955486424277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.006575901883253774</v>
+      </c>
+      <c r="G95">
+        <v>0.02790445115837187</v>
+      </c>
+      <c r="H95">
+        <v>-0.03778531402583547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1149040247782457</v>
+        <v>0.1849404197436958</v>
       </c>
       <c r="C98">
-        <v>0.1215902045894882</v>
+        <v>-0.06776341045680019</v>
       </c>
       <c r="D98">
-        <v>0.02845153430560219</v>
+        <v>-0.03413864555583184</v>
       </c>
       <c r="E98">
-        <v>-0.0757032777140343</v>
+        <v>0.06698235753407396</v>
       </c>
       <c r="F98">
-        <v>-0.1818678732980916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03794748022590447</v>
+      </c>
+      <c r="G98">
+        <v>0.0375704443703623</v>
+      </c>
+      <c r="H98">
+        <v>-0.3397835740074051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00956317816864476</v>
+        <v>0.006589633755670235</v>
       </c>
       <c r="C101">
-        <v>-0.001517212931359159</v>
+        <v>-0.01818612102776327</v>
       </c>
       <c r="D101">
-        <v>-0.05016819884365695</v>
+        <v>0.005753245856017808</v>
       </c>
       <c r="E101">
-        <v>0.02308951210149726</v>
+        <v>0.01462094774039443</v>
       </c>
       <c r="F101">
-        <v>-0.1762423800015571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04841874768468617</v>
+      </c>
+      <c r="G101">
+        <v>0.06367853177431543</v>
+      </c>
+      <c r="H101">
+        <v>-0.006781250597482548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.102490190043256</v>
+        <v>0.09441523473337578</v>
       </c>
       <c r="C102">
-        <v>0.07326227098561212</v>
+        <v>-0.1109951575363249</v>
       </c>
       <c r="D102">
-        <v>-0.009557571220456649</v>
+        <v>-0.008097718049279015</v>
       </c>
       <c r="E102">
-        <v>0.08955420886747537</v>
+        <v>-0.02552662689178114</v>
       </c>
       <c r="F102">
-        <v>0.08838111646608061</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05596916452399416</v>
+      </c>
+      <c r="G102">
+        <v>-0.006704474105411321</v>
+      </c>
+      <c r="H102">
+        <v>0.07036916446400721</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0469768975014495</v>
+        <v>0.01175501131751441</v>
       </c>
       <c r="C103">
-        <v>0.01686984900411069</v>
+        <v>-0.01876753302298025</v>
       </c>
       <c r="D103">
-        <v>-0.01663322658643934</v>
+        <v>-0.00134125934324816</v>
       </c>
       <c r="E103">
-        <v>0.04421505495348561</v>
+        <v>-0.01265656212754744</v>
       </c>
       <c r="F103">
-        <v>0.008406984108604179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.009213983826583097</v>
+      </c>
+      <c r="G103">
+        <v>0.005466616672022855</v>
+      </c>
+      <c r="H103">
+        <v>0.0170656781651379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1147902568532388</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.03461571427323773</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9786289282839202</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05259525498961554</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.06429307685021468</v>
+      </c>
+      <c r="G104">
+        <v>0.09013917898740477</v>
+      </c>
+      <c r="H104">
+        <v>0.06081306433308577</v>
       </c>
     </row>
   </sheetData>
